--- a/public/excel/data_siswa.xlsx
+++ b/public/excel/data_siswa.xlsx
@@ -742,31 +742,17 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -779,36 +765,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,6 +793,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,18 +822,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -868,6 +854,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -876,7 +870,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -890,9 +892,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -900,13 +901,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -921,25 +915,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,19 +945,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,7 +981,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,43 +993,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,25 +1023,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,19 +1047,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,7 +1077,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,15 +1106,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1154,6 +1139,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1178,17 +1172,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1204,159 +1192,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1367,7 +1361,7 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1840,7 +1834,6 @@
       <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="M2"/>
       <c r="N2" t="s">
         <v>25</v>
       </c>
@@ -1897,7 +1890,6 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="N3"/>
       <c r="O3" t="s">
         <v>37</v>
       </c>
@@ -1948,8 +1940,6 @@
       <c r="L4" t="s">
         <v>24</v>
       </c>
-      <c r="M4"/>
-      <c r="N4"/>
       <c r="O4" t="s">
         <v>45</v>
       </c>
@@ -2000,7 +1990,6 @@
       <c r="L5" t="s">
         <v>24</v>
       </c>
-      <c r="M5"/>
       <c r="N5" t="s">
         <v>52</v>
       </c>
@@ -2057,7 +2046,6 @@
       <c r="M6" t="s">
         <v>58</v>
       </c>
-      <c r="N6"/>
       <c r="O6" t="s">
         <v>59</v>
       </c>
@@ -2108,7 +2096,6 @@
       <c r="L7" t="s">
         <v>24</v>
       </c>
-      <c r="M7"/>
       <c r="N7" t="s">
         <v>64</v>
       </c>
@@ -2165,7 +2152,6 @@
       <c r="M8" t="s">
         <v>70</v>
       </c>
-      <c r="N8"/>
       <c r="O8" t="s">
         <v>71</v>
       </c>
@@ -2216,7 +2202,6 @@
       <c r="L9" t="s">
         <v>24</v>
       </c>
-      <c r="M9"/>
       <c r="N9" t="s">
         <v>25</v>
       </c>
@@ -2270,8 +2255,6 @@
       <c r="L10" t="s">
         <v>24</v>
       </c>
-      <c r="M10"/>
-      <c r="N10"/>
       <c r="O10" t="s">
         <v>83</v>
       </c>
@@ -2322,7 +2305,6 @@
       <c r="L11" t="s">
         <v>24</v>
       </c>
-      <c r="M11"/>
       <c r="N11" t="s">
         <v>64</v>
       </c>
@@ -2379,7 +2361,6 @@
       <c r="M12" t="s">
         <v>70</v>
       </c>
-      <c r="N12"/>
       <c r="O12" t="s">
         <v>92</v>
       </c>
@@ -2430,7 +2411,6 @@
       <c r="L13" t="s">
         <v>24</v>
       </c>
-      <c r="M13"/>
       <c r="N13" t="s">
         <v>52</v>
       </c>
@@ -2487,7 +2467,6 @@
       <c r="M14" t="s">
         <v>58</v>
       </c>
-      <c r="N14"/>
       <c r="O14" t="s">
         <v>102</v>
       </c>
@@ -2538,8 +2517,6 @@
       <c r="L15" t="s">
         <v>24</v>
       </c>
-      <c r="M15"/>
-      <c r="N15"/>
       <c r="O15" t="s">
         <v>107</v>
       </c>
@@ -2590,7 +2567,6 @@
       <c r="L16" t="s">
         <v>24</v>
       </c>
-      <c r="M16"/>
       <c r="N16" t="s">
         <v>25</v>
       </c>
@@ -2647,7 +2623,6 @@
       <c r="M17" t="s">
         <v>70</v>
       </c>
-      <c r="N17"/>
       <c r="O17" t="s">
         <v>117</v>
       </c>
@@ -2698,7 +2673,6 @@
       <c r="L18" t="s">
         <v>24</v>
       </c>
-      <c r="M18"/>
       <c r="N18" t="s">
         <v>122</v>
       </c>
@@ -2755,7 +2729,6 @@
       <c r="M19" t="s">
         <v>36</v>
       </c>
-      <c r="N19"/>
       <c r="O19" t="s">
         <v>128</v>
       </c>
@@ -2806,8 +2779,6 @@
       <c r="L20" t="s">
         <v>24</v>
       </c>
-      <c r="M20"/>
-      <c r="N20"/>
       <c r="O20" t="s">
         <v>133</v>
       </c>
@@ -2858,7 +2829,6 @@
       <c r="L21" t="s">
         <v>24</v>
       </c>
-      <c r="M21"/>
       <c r="N21" t="s">
         <v>52</v>
       </c>
@@ -2915,7 +2885,6 @@
       <c r="M22" t="s">
         <v>58</v>
       </c>
-      <c r="N22"/>
       <c r="O22" t="s">
         <v>143</v>
       </c>
@@ -2966,7 +2935,6 @@
       <c r="L23" t="s">
         <v>24</v>
       </c>
-      <c r="M23"/>
       <c r="N23" t="s">
         <v>64</v>
       </c>
@@ -3020,8 +2988,6 @@
       <c r="L24" t="s">
         <v>24</v>
       </c>
-      <c r="M24"/>
-      <c r="N24"/>
       <c r="O24" t="s">
         <v>153</v>
       </c>
@@ -3072,7 +3038,6 @@
       <c r="L25" t="s">
         <v>24</v>
       </c>
-      <c r="M25"/>
       <c r="N25" t="s">
         <v>52</v>
       </c>
@@ -3129,7 +3094,6 @@
       <c r="M26" t="s">
         <v>36</v>
       </c>
-      <c r="N26"/>
       <c r="O26" t="s">
         <v>162</v>
       </c>
@@ -3180,8 +3144,6 @@
       <c r="L27" t="s">
         <v>24</v>
       </c>
-      <c r="M27"/>
-      <c r="N27"/>
       <c r="O27" t="s">
         <v>167</v>
       </c>
@@ -3232,7 +3194,6 @@
       <c r="L28" t="s">
         <v>24</v>
       </c>
-      <c r="M28"/>
       <c r="N28" t="s">
         <v>25</v>
       </c>
@@ -3289,7 +3250,6 @@
       <c r="M29" t="s">
         <v>70</v>
       </c>
-      <c r="N29"/>
       <c r="O29" t="s">
         <v>177</v>
       </c>
@@ -3340,7 +3300,6 @@
       <c r="L30" t="s">
         <v>24</v>
       </c>
-      <c r="M30"/>
       <c r="N30" t="s">
         <v>122</v>
       </c>
@@ -3394,8 +3353,6 @@
       <c r="L31" t="s">
         <v>24</v>
       </c>
-      <c r="M31"/>
-      <c r="N31"/>
       <c r="O31" t="s">
         <v>185</v>
       </c>
@@ -3449,7 +3406,6 @@
       <c r="M32" t="s">
         <v>70</v>
       </c>
-      <c r="N32"/>
       <c r="O32" t="s">
         <v>189</v>
       </c>
@@ -3500,7 +3456,6 @@
       <c r="L33" t="s">
         <v>24</v>
       </c>
-      <c r="M33"/>
       <c r="N33" t="s">
         <v>52</v>
       </c>
@@ -3554,8 +3509,6 @@
       <c r="L34" t="s">
         <v>24</v>
       </c>
-      <c r="M34"/>
-      <c r="N34"/>
       <c r="O34" t="s">
         <v>151</v>
       </c>
@@ -3609,7 +3562,6 @@
       <c r="M35" t="s">
         <v>36</v>
       </c>
-      <c r="N35"/>
       <c r="O35" t="s">
         <v>199</v>
       </c>
@@ -3660,7 +3612,6 @@
       <c r="L36" t="s">
         <v>24</v>
       </c>
-      <c r="M36"/>
       <c r="N36" t="s">
         <v>25</v>
       </c>
@@ -3714,8 +3665,6 @@
       <c r="L37" t="s">
         <v>24</v>
       </c>
-      <c r="M37"/>
-      <c r="N37"/>
       <c r="O37" t="s">
         <v>206</v>
       </c>
@@ -3769,7 +3718,6 @@
       <c r="M38" t="s">
         <v>58</v>
       </c>
-      <c r="N38"/>
       <c r="O38" t="s">
         <v>210</v>
       </c>
@@ -3820,7 +3768,6 @@
       <c r="L39" t="s">
         <v>24</v>
       </c>
-      <c r="M39"/>
       <c r="N39" t="s">
         <v>64</v>
       </c>
@@ -3874,8 +3821,6 @@
       <c r="L40" t="s">
         <v>24</v>
       </c>
-      <c r="M40"/>
-      <c r="N40"/>
       <c r="O40" t="s">
         <v>217</v>
       </c>
@@ -3929,7 +3874,6 @@
       <c r="M41" t="s">
         <v>70</v>
       </c>
-      <c r="N41"/>
       <c r="O41" t="s">
         <v>221</v>
       </c>
@@ -3980,7 +3924,6 @@
       <c r="L42" t="s">
         <v>24</v>
       </c>
-      <c r="M42"/>
       <c r="N42" t="s">
         <v>122</v>
       </c>
@@ -4034,8 +3977,6 @@
       <c r="L43" t="s">
         <v>24</v>
       </c>
-      <c r="M43"/>
-      <c r="N43"/>
       <c r="O43" t="s">
         <v>226</v>
       </c>
@@ -4089,7 +4030,6 @@
       <c r="M44" t="s">
         <v>36</v>
       </c>
-      <c r="N44"/>
       <c r="O44" t="s">
         <v>230</v>
       </c>
@@ -4140,7 +4080,6 @@
       <c r="L45" t="s">
         <v>24</v>
       </c>
-      <c r="M45"/>
       <c r="N45" t="s">
         <v>52</v>
       </c>
